--- a/vista/tp5/tipo/grupo5.xlsx
+++ b/vista/tp5/tipo/grupo5.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Tipos" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -503,4 +504,32 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>